--- a/index/constituent_history/000925.xlsx
+++ b/index/constituent_history/000925.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr showBorderUnselectedTables="1" showInkAnnotation="1" saveExternalLinkValues="1" autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -878,46 +885,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-MM-dd HH:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Simsun"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -925,10 +917,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -936,92 +928,384 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.0625" style="0" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -1037,8 +1321,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -1054,8 +1338,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -1071,8 +1355,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1088,8 +1372,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -1105,8 +1389,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -1122,8 +1406,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -1139,8 +1423,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -1156,8 +1440,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
@@ -1173,8 +1457,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -1190,8 +1474,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
@@ -1207,8 +1491,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -1224,8 +1508,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
@@ -1241,8 +1525,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -1258,8 +1542,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B16" t="s">
@@ -1275,8 +1559,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
@@ -1292,8 +1576,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
@@ -1309,8 +1593,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -1326,8 +1610,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
@@ -1343,8 +1627,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -1360,8 +1644,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -1377,8 +1661,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B23" t="s">
@@ -1394,8 +1678,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
@@ -1411,8 +1695,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
@@ -1428,8 +1712,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B26" t="s">
@@ -1445,8 +1729,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
@@ -1462,8 +1746,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
@@ -1479,8 +1763,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
@@ -1496,8 +1780,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B30" t="s">
@@ -1513,8 +1797,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B31" t="s">
@@ -1530,8 +1814,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B32" t="s">
@@ -1547,8 +1831,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B33" t="s">
@@ -1564,8 +1848,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B34" t="s">
@@ -1581,8 +1865,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B35" t="s">
@@ -1598,8 +1882,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B36" t="s">
@@ -1615,8 +1899,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B37" t="s">
@@ -1632,8 +1916,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B38" t="s">
@@ -1649,8 +1933,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B39" t="s">
@@ -1666,8 +1950,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B40" t="s">
@@ -1683,8 +1967,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B41" t="s">
@@ -1700,8 +1984,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B42" t="s">
@@ -1717,8 +2001,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B43" t="s">
@@ -1734,8 +2018,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B44" t="s">
@@ -1751,8 +2035,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B45" t="s">
@@ -1768,8 +2052,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B46" t="s">
@@ -1785,8 +2069,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B47" t="s">
@@ -1802,8 +2086,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B48" t="s">
@@ -1819,8 +2103,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B49" t="s">
@@ -1836,8 +2120,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B50" t="s">
@@ -1853,8 +2137,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B51" t="s">
@@ -1870,8 +2154,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B52" t="s">
@@ -1887,8 +2171,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B53" t="s">
@@ -1904,8 +2188,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B54" t="s">
@@ -1921,8 +2205,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B55" t="s">
@@ -1938,8 +2222,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B56" t="s">
@@ -1955,8 +2239,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B57" t="s">
@@ -1972,8 +2256,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B58" t="s">
@@ -1989,8 +2273,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B59" t="s">
@@ -2006,8 +2290,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B60" t="s">
@@ -2023,8 +2307,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B61" t="s">
@@ -2040,8 +2324,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B62" t="s">
@@ -2057,8 +2341,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B63" t="s">
@@ -2074,8 +2358,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B64" t="s">
@@ -2091,8 +2375,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B65" t="s">
@@ -2108,8 +2392,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B66" t="s">
@@ -2125,8 +2409,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B67" t="s">
@@ -2142,8 +2426,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B68" t="s">
@@ -2159,8 +2443,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B69" t="s">
@@ -2176,8 +2460,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
@@ -2193,8 +2477,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B71" t="s">
@@ -2210,8 +2494,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B72" t="s">
@@ -2227,8 +2511,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B73" t="s">
@@ -2244,8 +2528,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B74" t="s">
@@ -2261,8 +2545,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B75" t="s">
@@ -2278,8 +2562,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B76" t="s">
@@ -2295,8 +2579,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B77" t="s">
@@ -2312,8 +2596,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B78" t="s">
@@ -2329,8 +2613,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B79" t="s">
@@ -2346,8 +2630,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B80" t="s">
@@ -2363,8 +2647,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B81" t="s">
@@ -2380,8 +2664,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B82" t="s">
@@ -2397,8 +2681,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B83" t="s">
@@ -2414,8 +2698,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B84" t="s">
@@ -2431,8 +2715,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B85" t="s">
@@ -2448,8 +2732,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B86" t="s">
@@ -2465,8 +2749,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B87" t="s">
@@ -2482,8 +2766,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B88" t="s">
@@ -2499,8 +2783,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B89" t="s">
@@ -2516,8 +2800,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B90" t="s">
@@ -2533,8 +2817,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B91" t="s">
@@ -2550,8 +2834,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B92" t="s">
@@ -2567,8 +2851,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B93" t="s">
@@ -2584,8 +2868,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B94" t="s">
@@ -2601,8 +2885,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B95" t="s">
@@ -2618,8 +2902,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B96" t="s">
@@ -2635,8 +2919,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B97" t="s">
@@ -2652,8 +2936,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B98" t="s">
@@ -2669,8 +2953,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B99" t="s">
@@ -2686,8 +2970,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B100" t="s">
@@ -2703,8 +2987,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B101" t="s">
@@ -2720,8 +3004,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B102" t="s">
@@ -2737,8 +3021,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B103" t="s">
@@ -2754,8 +3038,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B104" t="s">
@@ -2771,8 +3055,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B105" t="s">
@@ -2788,8 +3072,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B106" t="s">
@@ -2805,8 +3089,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B107" t="s">
@@ -2822,8 +3106,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B108" t="s">
@@ -2839,8 +3123,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B109" t="s">
@@ -2856,8 +3140,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B110" t="s">
@@ -2873,8 +3157,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B111" t="s">
@@ -2890,12 +3174,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" ht="25" customHeight="1">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:1" ht="25" customHeight="1">
+      <c r="A117" s="4" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>